--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/SalesReturn.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/SalesReturn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="4" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="197">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Verify if it is validating that the Body Grid's data is missing while saving the voucher</t>
   </si>
   <si>
-    <t>Field is Mandatory</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -618,63 +615,50 @@
     <t>259.15</t>
   </si>
   <si>
-    <t>Message
-Voucher saved successfully</t>
-  </si>
-  <si>
     <t>452.64</t>
   </si>
   <si>
-    <t>Error
-There should be atleast one row entered.</t>
-  </si>
-  <si>
     <t>20.0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>This Field is Mandatory
-Controls marked with arrow mark, require Values
+    <t>Application Logut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if it is able to logout from the application </t>
+  </si>
+  <si>
+    <t>LOGOUT</t>
+  </si>
+  <si>
+    <t>156.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Return Voucher Home Page Close &amp; Logout from application </t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Voucher saved successfully</t>
+  </si>
+  <si>
+    <t>Controls marked with arrow mark, require Values
 Main -&gt; SalesAC</t>
   </si>
   <si>
-    <t>Application Logut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify if it is able to logout from the application </t>
-  </si>
-  <si>
-    <t>LOGOUT</t>
-  </si>
-  <si>
-    <t>Error
-Cash account must be defined in Settings\VAT in order to raise a receipt.</t>
-  </si>
-  <si>
-    <t>A0207</t>
-  </si>
-  <si>
-    <t>156.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Return Voucher Home Page Close &amp; Logout from application </t>
-  </si>
-  <si>
-    <t>Blocked</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>AUTO040119</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>178.5</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -730,7 +714,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="536">
+  <fills count="129">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,877 +732,82 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1628,6 +817,276 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
@@ -1669,1522 +1128,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -3436,7 +1385,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
@@ -3509,278 +1458,87 @@
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="383" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="385" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="387" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="389" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="391" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="393" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="395" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="397" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="399" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="401" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="403" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="535" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4091,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4128,7 +1886,7 @@
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4142,7 +1900,7 @@
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4150,13 +1908,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="279" t="s">
-        <v>197</v>
+      <c r="D4" s="88" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4164,51 +1922,51 @@
         <v>71</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="282" t="s">
-        <v>197</v>
+      <c r="D5" s="91" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>144</v>
+      <c r="B6" s="60" t="s">
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4216,13 +1974,13 @@
         <v>75</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="286" t="s">
-        <v>197</v>
+      <c r="D9" s="95" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,13 +1988,13 @@
         <v>76</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="290" t="s">
-        <v>197</v>
+      <c r="D10" s="99" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,13 +2002,13 @@
         <v>77</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="293" t="s">
-        <v>197</v>
+      <c r="D11" s="102" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,27 +2016,27 @@
         <v>78</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="295" t="s">
-        <v>197</v>
+      <c r="D12" s="104" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>149</v>
+      <c r="B13" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="298" t="s">
-        <v>197</v>
+      <c r="D13" s="107" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4286,13 +2044,13 @@
         <v>110</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s" s="301">
-        <v>197</v>
+      <c r="D14" t="s" s="110">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4321,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4409,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -4443,13 +2201,13 @@
         <v>70</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="277" t="s">
-        <v>197</v>
+      <c r="D5" s="86" t="s">
+        <v>192</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>58</v>
@@ -4461,13 +2219,13 @@
         <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4475,13 +2233,13 @@
         <v>70</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="278" t="s">
-        <v>197</v>
+      <c r="D6" s="87" t="s">
+        <v>191</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>85</v>
@@ -4499,13 +2257,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="280" t="s">
-        <v>197</v>
+      <c r="D7" s="89" t="s">
+        <v>191</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
@@ -4521,13 +2279,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="281" t="s">
-        <v>197</v>
+      <c r="D8" s="90" t="s">
+        <v>191</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>94</v>
@@ -4545,7 +2303,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>37</v>
@@ -4561,10 +2319,10 @@
         <v>25</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>133</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>107</v>
@@ -4575,7 +2333,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>38</v>
@@ -4605,7 +2363,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>39</v>
@@ -4686,13 +2444,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="285" t="s">
-        <v>197</v>
+      <c r="D2" s="94" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>17</v>
@@ -4705,7 +2463,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4750,13 +2508,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="283" t="s">
-        <v>197</v>
+      <c r="D4" s="92" t="s">
+        <v>191</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>54</v>
@@ -4769,10 +2527,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4810,22 +2568,22 @@
         <v>88</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="284" t="s">
-        <v>197</v>
+      <c r="D6" s="93" t="s">
+        <v>191</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4862,7 +2620,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>119</v>
@@ -4898,10 +2656,10 @@
         <v>25</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>107</v>
@@ -4916,7 +2674,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>20</v>
@@ -4928,10 +2686,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -5046,7 +2804,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>97</v>
@@ -5059,14 +2817,14 @@
         <v>96</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -5081,10 +2839,10 @@
         <v>98</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -5156,13 +2914,13 @@
         <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="289" t="s">
-        <v>197</v>
+        <v>135</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>17</v>
@@ -5175,7 +2933,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5220,13 +2978,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="287" t="s">
-        <v>197</v>
+      <c r="D4" s="96" t="s">
+        <v>191</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>54</v>
@@ -5239,10 +2997,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5280,22 +3038,22 @@
         <v>91</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="288" t="s">
-        <v>197</v>
+      <c r="D6" s="97" t="s">
+        <v>191</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -5332,7 +3090,7 @@
         <v>92</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>119</v>
@@ -5368,10 +3126,10 @@
         <v>25</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>107</v>
@@ -5386,7 +3144,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>20</v>
@@ -5398,15 +3156,15 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5516,7 +3274,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>97</v>
@@ -5532,7 +3290,7 @@
         <v>118</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -5549,10 +3307,10 @@
         <v>96</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -5569,10 +3327,10 @@
         <v>98</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -5589,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5644,13 +3402,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="292" t="s">
-        <v>197</v>
+      <c r="D2" s="101" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>17</v>
@@ -5659,11 +3417,11 @@
         <v>35</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="11" t="s">
-        <v>124</v>
+      <c r="H2" t="s">
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5708,13 +3466,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="291" t="s">
-        <v>197</v>
+      <c r="D4" s="100" t="s">
+        <v>191</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>54</v>
@@ -5727,10 +3485,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5768,7 +3526,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>63</v>
@@ -5812,7 +3570,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>119</v>
@@ -5848,10 +3606,10 @@
         <v>25</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>107</v>
@@ -5866,7 +3624,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>20</v>
@@ -5879,7 +3637,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -5994,7 +3752,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>97</v>
@@ -6007,14 +3765,14 @@
         <v>96</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -6084,13 +3842,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="294" t="s">
-        <v>197</v>
+      <c r="D2" s="103" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>17</v>
@@ -6100,10 +3858,10 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -6148,7 +3906,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>53</v>
@@ -6200,7 +3958,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>63</v>
@@ -6244,7 +4002,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>119</v>
@@ -6280,10 +4038,10 @@
         <v>25</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>107</v>
@@ -6298,7 +4056,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>20</v>
@@ -6310,10 +4068,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -6426,7 +4184,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>97</v>
@@ -6507,13 +4265,13 @@
         <v>79</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="297" t="s">
-        <v>197</v>
+      <c r="D2" s="106" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>17</v>
@@ -6523,10 +4281,10 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -6568,16 +4326,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="296" t="s">
-        <v>197</v>
+      <c r="D4" s="105" t="s">
+        <v>191</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>54</v>
@@ -6590,10 +4348,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -6628,10 +4386,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>63</v>
@@ -6672,10 +4430,10 @@
     </row>
     <row ht="30" r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>119</v>
@@ -6711,10 +4469,10 @@
         <v>25</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>107</v>
@@ -6729,7 +4487,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>20</v>
@@ -6741,14 +4499,14 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L10" s="3"/>
     </row>
@@ -6859,7 +4617,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>97</v>
@@ -6875,7 +4633,7 @@
         <v>114</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -6926,13 +4684,13 @@
         <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="299" t="s">
-        <v>197</v>
+      <c r="D2" s="108" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
@@ -6943,16 +4701,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="300" t="s">
-        <v>197</v>
+        <v>186</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>191</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
